--- a/Packages/cn.etetet.wow/Luban/Config/Datas/MapTransferRule.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/MapTransferRule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C8963-28BD-304A-820F-242E2898BD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8ED0F8-7CB8-934E-BC32-9CCF7CBFA51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -77,11 +77,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Map1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lordaeron</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -146,11 +150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -465,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -491,7 +498,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -500,13 +507,21 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
